--- a/Question_Set2/Programming skills/Data Analytics in Azure.xlsx
+++ b/Question_Set2/Programming skills/Data Analytics in Azure.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You work for a retail company that wishes to migrate its on-premises transactional data to Azure. You have been tasked with the development of a managed, cloud-based data integration service that can ingest, prepare, transform, and transfer this data to Azure storage solutions at scale.Which Azure service should you use?', 'ques_type': 2, 'options': ['Azure Blob Storage', 'Azure Data Lake', 'Azure Data Factory', 'Azure Cosmos DB'], 'score': 'Azure Data Factory'}, {'title': 'You work for a financial institution that has raw transactional data that requires cleansing, transformation, and enrichment before it can be used for analytics. They need an Azure service that integrates seamlessly with Azure Data Lake and provides a rich set of transformations. You have been tasked with setting up the required infrastructure.Which Azure service should you use?', 'ques_type': 2, 'options': ['Azure Stream Analytics', 'Azure Databricks', 'Azure Logic Apps', 'Azure Synapse Analytics'], 'score': 'Azure Databricks'}, {'title': 'You work for a multinational retail chain that aims to derive insights from its vast customer purchase data. The company is already using Azure for its infrastructure, and you have been tasked with visually representing trends and anomalies to make data-driven decisions. What should you do?', 'ques_type': 2, 'options': ['Execute a series of T-SQL queries to generate structured reports.', 'Utilize Power Query to extract and transform data into visual models.', 'Implement a REST API to fetch and display data in graphical form.', 'Convert raw data to CSV and analyze using Azure Databricks.'], 'score': 'Utilize Power Query to extract and transform data into visual models.'}, {'title': 'You are a data scientist at an online travel agency. The agency has a vast database of hotels and destinations on Azure SQL Database, which is experiencing slow query performance. You have been tasked with optimizing the performance of the queries.What should you do to accomplish this with the least amount of effort?', 'ques_type': 2, 'options': ['Partition the data tables based on high-frequency access patterns.', 'Implement Automatic Tuning to continuously adapt to changing workloads.', 'Introduce indexing on frequently queried columns to improve read performance.', 'Increase the storage size of the Azure SQL Database.'], 'score': 'Implement Automatic Tuning to continuously adapt to changing workloads.'}]</t>
+    <t>questions = [
+    {
+        "title": "You work for a retail company that wishes to migrate its on-premises transactional data to Azure. You have been tasked with the development of a managed, cloud-based data integration service that can ingest, prepare, transform, and transfer this data to Azure storage solutions at scale.Which Azure service should you use?",
+        "ques_type": 2,
+        "options": [
+            "Azure Blob Storage",
+            "Azure Data Lake",
+            "Azure Data Factory",
+            "Azure Cosmos DB"
+        ],
+        "score": "Azure Data Factory"
+    },
+    {
+        "title": "You work for a financial institution that has raw transactional data that requires cleansing, transformation, and enrichment before it can be used for analytics. They need an Azure service that integrates seamlessly with Azure Data Lake and provides a rich set of transformations. You have been tasked with setting up the required infrastructure.Which Azure service should you use?",
+        "ques_type": 2,
+        "options": [
+            "Azure Stream Analytics",
+            "Azure Databricks",
+            "Azure Logic Apps",
+            "Azure Synapse Analytics"
+        ],
+        "score": "Azure Databricks"
+    },
+    {
+        "title": "You work for a multinational retail chain that aims to derive insights from its vast customer purchase data. The company is already using Azure for its infrastructure, and you have been tasked with visually representing trends and anomalies to make data-driven decisions. What should you do?",
+        "ques_type": 2,
+        "options": [
+            "Execute a series of T-SQL queries to generate structured reports.",
+            "Utilize Power Query to extract and transform data into visual models.",
+            "Implement a REST API to fetch and display data in graphical form.",
+            "Convert raw data to CSV and analyze using Azure Databricks."
+        ],
+        "score": "Utilize Power Query to extract and transform data into visual models."
+    },
+    {
+        "title": "You are a data scientist at an online travel agency. The agency has a vast database of hotels and destinations on Azure SQL Database, which is experiencing slow query performance. You have been tasked with optimizing the performance of the queries.What should you do to accomplish this with the least amount of effort?",
+        "ques_type": 2,
+        "options": [
+            "Partition the data tables based on high-frequency access patterns.",
+            "Implement Automatic Tuning to continuously adapt to changing workloads.",
+            "Introduce indexing on frequently queried columns to improve read performance.",
+            "Increase the storage size of the Azure SQL Database."
+        ],
+        "score": "Implement Automatic Tuning to continuously adapt to changing workloads."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
